--- a/song_rankings.xlsx
+++ b/song_rankings.xlsx
@@ -29,12 +29,66 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9898"/>
+        <bgColor rgb="00FF9898"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA7A7"/>
+        <bgColor rgb="00FFA7A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC4C4"/>
+        <bgColor rgb="00FFC4C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8A8A"/>
+        <bgColor rgb="00FF8A8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF5050"/>
+        <bgColor rgb="00FF5050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFDCDC"/>
+        <bgColor rgb="00FFDCDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD3D3"/>
+        <bgColor rgb="00FFD3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE1E1"/>
+        <bgColor rgb="00FFE1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -44,14 +98,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF8A8A"/>
-        <bgColor rgb="00FF8A8A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF5050"/>
-        <bgColor rgb="00FF5050"/>
+        <fgColor rgb="00FFD0D0"/>
+        <bgColor rgb="00FFD0D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9595"/>
+        <bgColor rgb="00FF9595"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD9D9"/>
+        <bgColor rgb="00FFD9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA0A0"/>
+        <bgColor rgb="00FFA0A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7F7F"/>
+        <bgColor rgb="00FF7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7878"/>
+        <bgColor rgb="00FF7878"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9191"/>
+        <bgColor rgb="00FF9191"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC9C9"/>
+        <bgColor rgb="00FFC9C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE3E3"/>
+        <bgColor rgb="00FFE3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8383"/>
+        <bgColor rgb="00FF8383"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8686"/>
+        <bgColor rgb="00FF8686"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7C7"/>
+        <bgColor rgb="00FFC7C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD8D8"/>
+        <bgColor rgb="00FFD8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7474"/>
+        <bgColor rgb="00FF7474"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE5E5"/>
+        <bgColor rgb="00FFE5E5"/>
       </patternFill>
     </fill>
     <fill>
@@ -62,68 +194,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE1E1"/>
-        <bgColor rgb="00FFE1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA7A7"/>
-        <bgColor rgb="00FFA7A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF7B7B"/>
         <bgColor rgb="00FF7B7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC1C1"/>
-        <bgColor rgb="00FFC1C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9898"/>
-        <bgColor rgb="00FF9898"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEAEA"/>
-        <bgColor rgb="00FFEAEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC4C4"/>
-        <bgColor rgb="00FFC4C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF5E5E"/>
-        <bgColor rgb="00FF5E5E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7E7E"/>
-        <bgColor rgb="00FF7E7E"/>
+        <fgColor rgb="00FFD1D1"/>
+        <bgColor rgb="00FFD1D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE0E0"/>
+        <bgColor rgb="00FFE0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE9E9"/>
+        <bgColor rgb="00FFE9E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8585"/>
+        <bgColor rgb="00FF8585"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9797"/>
+        <bgColor rgb="00FF9797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8080"/>
+        <bgColor rgb="00FF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF8181"/>
         <bgColor rgb="00FF8181"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8B8B"/>
+        <bgColor rgb="00FF8B8B"/>
       </patternFill>
     </fill>
   </fills>
@@ -145,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -165,6 +285,26 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -530,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +683,12 @@
     <col width="10.71" customWidth="1" min="3" max="3"/>
     <col width="10.71" customWidth="1" min="4" max="4"/>
     <col width="10.71" customWidth="1" min="5" max="5"/>
+    <col width="10.71" customWidth="1" min="6" max="6"/>
+    <col width="10.71" customWidth="1" min="7" max="7"/>
+    <col width="10.71" customWidth="1" min="8" max="8"/>
+    <col width="10.71" customWidth="1" min="9" max="9"/>
+    <col width="10.71" customWidth="1" min="10" max="10"/>
+    <col width="10.71" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -558,15 +704,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>amberly</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chloe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>chris</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>dom</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isley</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>roy</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ryan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
@@ -579,16 +755,34 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>1.41</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -597,17 +791,35 @@
           <t>6 dogs - flossing</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="D3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="J3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
+      <c r="K3" s="12" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -616,17 +828,35 @@
           <t>Achilles Come Down</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>1.41</v>
+      <c r="B4" s="13" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -635,17 +865,35 @@
           <t>Andrew Gold - Spooky Scary Skeletons</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>2.12</v>
+      <c r="B5" s="15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="6">
@@ -654,17 +902,35 @@
           <t>Audioslave - Show me how to live (HD)</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>0.71</v>
+      <c r="B6" s="16" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="7">
@@ -673,17 +939,35 @@
           <t>BigXthaPlug - Change Me (Official Music Video)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
+      <c r="B7" s="17" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -692,17 +976,35 @@
           <t>Blood And Butter</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>2.12</v>
+      <c r="B8" s="18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="19" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="9">
@@ -711,17 +1013,35 @@
           <t>Cage The Elephant - Around My Head (Official Video)</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>0.71</v>
+      <c r="C9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="10">
@@ -730,17 +1050,35 @@
           <t>Charli XCX - 7 years [Official Audio]</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="n">
+      <c r="B10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>1.41</v>
+      <c r="I10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">
@@ -749,17 +1087,35 @@
           <t>Daft Punk - Around the World  Harder, Better, Faster, Stronger (Live 2007 - Official Audio)</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>1.41</v>
+      <c r="B11" s="21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="12">
@@ -768,17 +1124,35 @@
           <t>Kendrick Lamar - Auntie Diaries (Official Audio)</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
+      <c r="B12" s="22" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" s="23" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="13">
@@ -787,17 +1161,35 @@
           <t>Knot Me</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>4.5</v>
+      <c r="B13" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="10" t="n">
-        <v>2.12</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="24" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="14">
@@ -806,17 +1198,35 @@
           <t>Lady Gaga, Bruno Mars - Die With A Smile (Official Music Video)</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
+      <c r="B14" s="25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15">
@@ -825,17 +1235,35 @@
           <t>Rah Tah Tah</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <v>0.71</v>
+      <c r="B15" s="25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="26" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="16">
@@ -844,17 +1272,35 @@
           <t>SANDY MARTON - Camel By Camel (Vocal Mix) 1985</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="27" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="17">
@@ -863,17 +1309,35 @@
           <t>Spiller - Groovejet (If This Ain't Love) [feat. Sophie Ellis-Bextor] (Official Music Video)</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>6</v>
+      <c r="B17" s="28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>1.41</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="24" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="18">
@@ -882,17 +1346,35 @@
           <t>Still Waiting  Jazz Emu</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
+      <c r="B18" s="22" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="19">
@@ -901,17 +1383,35 @@
           <t>Tangerine Dream</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" s="12" t="n">
-        <v>0.71</v>
+      <c r="B19" s="16" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" s="30" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="20">
@@ -920,17 +1420,35 @@
           <t>The Black Queen - Ice To Never</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>3</v>
+      <c r="B20" s="13" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.41</v>
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" s="31" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="21">
@@ -939,17 +1457,35 @@
           <t>What a Fool Believes</t>
         </is>
       </c>
-      <c r="B21" s="14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" s="12" t="n">
-        <v>0.71</v>
+      <c r="B21" s="16" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="22">
@@ -958,11 +1494,29 @@
           <t>Average Rating</t>
         </is>
       </c>
-      <c r="C22" s="15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D22" s="16" t="n">
+      <c r="C22" s="21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D22" s="32" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F22" s="33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G22" s="33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H22" s="34" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I22" s="35" t="n">
         <v>4.3</v>
+      </c>
+      <c r="J22" s="36" t="n">
+        <v>3.95</v>
       </c>
     </row>
   </sheetData>
